--- a/test.xlsx
+++ b/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10392" windowHeight="5724"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10395" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Titel</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Anzahl</t>
   </si>
   <si>
-    <t>Lineal</t>
-  </si>
-  <si>
     <t>Schreibgeräte</t>
   </si>
   <si>
@@ -45,6 +42,12 @@
   </si>
   <si>
     <t>Druckschrift</t>
+  </si>
+  <si>
+    <t>Lineal1</t>
+  </si>
+  <si>
+    <t>Lineal2</t>
   </si>
 </sst>
 </file>
@@ -364,12 +367,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,34 +383,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
